--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ki4\MAS291\Python\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB54A33-E876-4E77-8A30-D2030EE519E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91815C3C-8F7E-4A37-B109-FA71DA946818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="330" windowWidth="26040" windowHeight="13860" xr2:uid="{E5F36EE4-09F6-4A9D-A731-E4B9A9EDE00C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5F36EE4-09F6-4A9D-A731-E4B9A9EDE00C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>15-19</t>
   </si>
@@ -54,134 +65,29 @@
     <t>Sơ bộ 2022</t>
   </si>
   <si>
-    <t>2.407,50</t>
-  </si>
-  <si>
-    <t>2.117,00</t>
-  </si>
-  <si>
-    <t>2.192,60</t>
-  </si>
-  <si>
-    <t>2.030,50</t>
-  </si>
-  <si>
-    <t>5.055,40</t>
-  </si>
-  <si>
-    <t>4.848,40</t>
-  </si>
-  <si>
-    <t>4.838,80</t>
-  </si>
-  <si>
-    <t>4.545,20</t>
-  </si>
-  <si>
-    <t>3.463,23</t>
-  </si>
-  <si>
-    <t>6.125,30</t>
-  </si>
-  <si>
-    <t>6.195,70</t>
-  </si>
-  <si>
-    <t>6.028,80</t>
-  </si>
-  <si>
-    <t>6.175,50</t>
-  </si>
-  <si>
-    <t>5.281,89</t>
-  </si>
-  <si>
-    <t>6.899,40</t>
-  </si>
-  <si>
-    <t>6.837,90</t>
-  </si>
-  <si>
-    <t>6.705,60</t>
-  </si>
-  <si>
-    <t>6.593,60</t>
-  </si>
-  <si>
-    <t>6.855,91</t>
-  </si>
-  <si>
-    <t>6.425,30</t>
-  </si>
-  <si>
-    <t>6.472,10</t>
-  </si>
-  <si>
-    <t>6.618,10</t>
-  </si>
-  <si>
-    <t>6.831,70</t>
-  </si>
-  <si>
-    <t>7.300,52</t>
-  </si>
-  <si>
-    <t>6.386,40</t>
-  </si>
-  <si>
-    <t>6.473,40</t>
-  </si>
-  <si>
-    <t>6.598,70</t>
-  </si>
-  <si>
-    <t>6.679,90</t>
-  </si>
-  <si>
-    <t>6.592,07</t>
-  </si>
-  <si>
-    <t>5.849,60</t>
-  </si>
-  <si>
-    <t>5.994,20</t>
-  </si>
-  <si>
-    <t>6.183,80</t>
-  </si>
-  <si>
-    <t>6.590,70</t>
-  </si>
-  <si>
-    <t>6.061,66</t>
-  </si>
-  <si>
-    <t>13.961,60</t>
-  </si>
-  <si>
-    <t>14.406,80</t>
-  </si>
-  <si>
-    <t>14.542,20</t>
-  </si>
-  <si>
-    <t>14.835,40</t>
-  </si>
-  <si>
-    <t>13.698,29</t>
-  </si>
-  <si>
     <t>Tuổi</t>
   </si>
   <si>
-    <t>1351,14</t>
+    <t>Means</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +117,16 @@
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -232,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -316,11 +232,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -340,12 +276,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F21448-7538-4FE7-B730-B424B1A1A43B}">
-  <dimension ref="B1:L9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,323 +624,266 @@
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B1" s="6" t="s">
-        <v>48</v>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2019</v>
       </c>
       <c r="C1" s="5">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D1" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2015</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2019</v>
-      </c>
-      <c r="J1" s="5">
-        <v>2020</v>
-      </c>
-      <c r="K1" s="5">
         <v>2021</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
-        <v>261330</v>
+      <c r="B2" s="1">
+        <v>208370</v>
+      </c>
+      <c r="C2" s="1">
+        <v>167812</v>
       </c>
       <c r="D2" s="1">
-        <v>240530</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>131520</v>
+      </c>
+      <c r="E2" s="4">
+        <v>135114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>460940</v>
+      </c>
+      <c r="C3" s="1">
+        <v>394646</v>
+      </c>
+      <c r="D3" s="1">
+        <v>334370</v>
+      </c>
+      <c r="E3" s="4">
+        <v>346323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>663000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>621856</v>
+      </c>
+      <c r="D4" s="1">
+        <v>548900</v>
+      </c>
+      <c r="E4" s="4">
+        <v>528189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>736550</v>
+      </c>
+      <c r="C5" s="1">
+        <v>726262</v>
+      </c>
+      <c r="D5" s="1">
+        <v>667960</v>
+      </c>
+      <c r="E5" s="4">
+        <v>685591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>727120</v>
+      </c>
+      <c r="C6" s="1">
+        <v>754301</v>
+      </c>
+      <c r="D6" s="1">
+        <v>706000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>730052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>641900</v>
+      </c>
+      <c r="C7" s="1">
+        <v>673647</v>
+      </c>
+      <c r="D7" s="1">
+        <v>615400</v>
+      </c>
+      <c r="E7" s="4">
+        <v>659207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>607730</v>
+      </c>
+      <c r="C8" s="1">
+        <v>617257</v>
+      </c>
+      <c r="D8" s="1">
+        <v>567030</v>
+      </c>
+      <c r="E8" s="4">
+        <v>606166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1420310</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1405170</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1336030</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1369829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B10" s="8">
+        <f>AVERAGE(B2:B9)</f>
+        <v>683240</v>
+      </c>
+      <c r="C10" s="8">
+        <f>AVERAGE(C2:C9)</f>
+        <v>670118.875</v>
+      </c>
+      <c r="D10" s="8">
+        <f>AVERAGE(D2:D9)</f>
+        <v>613401.25</v>
+      </c>
+      <c r="E10" s="8">
+        <f>AVERAGE(E2:E9)</f>
+        <v>632558.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <f>MIN(B2:B9)</f>
+        <v>208370</v>
+      </c>
+      <c r="C11" s="10">
+        <f>MIN(C2:C9)</f>
+        <v>167812</v>
+      </c>
+      <c r="D11" s="10">
+        <f>MIN(D2:D9)</f>
+        <v>131520</v>
+      </c>
+      <c r="E11" s="10">
+        <f>MIN(E2:E9)</f>
+        <v>135114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <f>MAX(B2:B9)</f>
+        <v>1420310</v>
+      </c>
+      <c r="C12" s="9">
+        <f>MAX(C2:C9)</f>
+        <v>1405170</v>
+      </c>
+      <c r="D12" s="9">
+        <f>MAX(D2:D9)</f>
+        <v>1336030</v>
+      </c>
+      <c r="E12" s="9">
+        <f>MAX(E2:E9)</f>
+        <v>1369829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
-        <v>208370</v>
-      </c>
-      <c r="J2" s="1">
-        <v>167812</v>
-      </c>
-      <c r="K2" s="1">
-        <v>131520</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>485730</v>
-      </c>
-      <c r="D3" s="1">
-        <v>474940</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B13" s="11">
+        <f>_xlfn.VAR.S(B2:B9)</f>
+        <v>118682687942.85715</v>
+      </c>
+      <c r="C13" s="11">
+        <f>_xlfn.VAR.S(C2:C9)</f>
+        <v>126267495592.69643</v>
+      </c>
+      <c r="D13" s="11">
+        <f>_xlfn.VAR.S(D2:D9)</f>
+        <v>121446596098.21428</v>
+      </c>
+      <c r="E13" s="11">
+        <f>_xlfn.VAR.S(E2:E9)</f>
+        <v>128223815706.69643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
-        <v>460940</v>
-      </c>
-      <c r="J3" s="1">
-        <v>394646</v>
-      </c>
-      <c r="K3" s="1">
-        <v>334370</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>615850</v>
-      </c>
-      <c r="D4" s="1">
-        <v>616730</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1">
-        <v>663000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>621856</v>
-      </c>
-      <c r="K4" s="1">
-        <v>548900</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>639000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>655670</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1">
-        <v>736550</v>
-      </c>
-      <c r="J5" s="1">
-        <v>726262</v>
-      </c>
-      <c r="K5" s="1">
-        <v>667960</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>648530</v>
-      </c>
-      <c r="D6" s="1">
-        <v>649050</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1">
-        <v>727120</v>
-      </c>
-      <c r="J6" s="1">
-        <v>754301</v>
-      </c>
-      <c r="K6" s="1">
-        <v>706000</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>649460</v>
-      </c>
-      <c r="D7" s="1">
-        <v>655430</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1">
-        <v>641900</v>
-      </c>
-      <c r="J7" s="1">
-        <v>673647</v>
-      </c>
-      <c r="K7" s="1">
-        <v>615400</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>615060</v>
-      </c>
-      <c r="D8" s="1">
-        <v>610910</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="1">
-        <v>607730</v>
-      </c>
-      <c r="J8" s="1">
-        <v>617257</v>
-      </c>
-      <c r="K8" s="1">
-        <v>567030</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1335820</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1399800</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1420310</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1405170</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1336030</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>47</v>
+      <c r="B14" s="9">
+        <f>SUM(B2:B9)</f>
+        <v>5465920</v>
+      </c>
+      <c r="C14" s="9">
+        <f>SUM(C2:C9)</f>
+        <v>5360951</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(D2:D9)</f>
+        <v>4907210</v>
+      </c>
+      <c r="E14" s="9">
+        <f>SUM(E2:E9)</f>
+        <v>5060471</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>